--- a/input/RRG_metadata (2).xlsx
+++ b/input/RRG_metadata (2).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddietoomey/Documents/2_Other_Projects/River Red Gums/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{299F7944-25B3-413E-80D8-896B728723EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{350AAF09-112C-4403-80B6-26E1E5C67DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-2820" windowWidth="38400" windowHeight="21600" xr2:uid="{6F91E144-F00F-B44A-9FD0-B5C6F310CA79}"/>
   </bookViews>
